--- a/reports/products.xlsx
+++ b/reports/products.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>No.</t>
   </si>
@@ -26,28 +26,31 @@
     <t>Barcode</t>
   </si>
   <si>
+    <t>UOM</t>
+  </si>
+  <si>
     <t>Qty in Store</t>
   </si>
   <si>
-    <t>Amount Before Tax</t>
-  </si>
-  <si>
-    <t>Amount After Tax</t>
-  </si>
-  <si>
-    <t>Is Paid</t>
-  </si>
-  <si>
-    <t>Mega Sardines</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>Melona Strawberry</t>
-  </si>
-  <si>
-    <t>Chippy</t>
+    <t>Amount Before Tax(Php)</t>
+  </si>
+  <si>
+    <t>Amount After Tax(Php)</t>
+  </si>
+  <si>
+    <t>CEMENT</t>
+  </si>
+  <si>
+    <t>Ml.</t>
+  </si>
+  <si>
+    <t>KILLS MOSQUITOES IN SECONDS</t>
+  </si>
+  <si>
+    <t>stik o</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -84,7 +87,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF6900"/>
+        <fgColor rgb="FFD3D3D3"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -116,16 +119,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,43 +439,43 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:G4"/>
+      <selection activeCell="A1" sqref="A1:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="4.57" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="15.282" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="19.995" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="6.856" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="32.992" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="16.425" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="6.856" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="15.282" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="26.993" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="25.851" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -469,72 +483,88 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3">
-        <v>556589844</v>
-      </c>
-      <c r="D2" s="4">
-        <v>23</v>
-      </c>
-      <c r="E2" s="4">
-        <v>23.0</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="C2" s="5">
+        <v>101010101010</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="E2" s="6">
+        <v>60.0</v>
+      </c>
+      <c r="F2" s="6">
+        <v>20.0</v>
+      </c>
+      <c r="G2" s="6">
+        <v>22.4</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3">
-        <v>888779554</v>
-      </c>
-      <c r="D3" s="4">
-        <v>23</v>
-      </c>
-      <c r="E3" s="4">
-        <v>23.0</v>
-      </c>
-      <c r="F3" s="4">
-        <v>2.46</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>8</v>
+      <c r="C3" s="5">
+        <v>4801234107727</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>160.0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>200.0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3">
-        <v>23200221214</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0.64</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>8</v>
+      <c r="C4" s="5">
+        <v>4800166142288</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>100.0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>125.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7">
+        <v>60.0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>280.0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>347.4</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells>
+    <mergeCell ref="A5:D5"/>
+  </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
